--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb2-Tgfbr3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H2">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I2">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J2">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.424575</v>
+        <v>42.09975866666667</v>
       </c>
       <c r="N2">
-        <v>61.273725</v>
+        <v>126.299276</v>
       </c>
       <c r="O2">
-        <v>0.203732656096709</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="P2">
-        <v>0.2037326560967089</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="Q2">
-        <v>27.06943134039167</v>
+        <v>94.40393750401778</v>
       </c>
       <c r="R2">
-        <v>243.624882063525</v>
+        <v>849.6354375361599</v>
       </c>
       <c r="S2">
-        <v>0.005945076203068326</v>
+        <v>0.01472934541119971</v>
       </c>
       <c r="T2">
-        <v>0.005945076203068325</v>
+        <v>0.01472934541119971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H3">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I3">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J3">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>171.503098</v>
       </c>
       <c r="O3">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="P3">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="Q3">
-        <v>75.76642901954246</v>
+        <v>128.1920867490756</v>
       </c>
       <c r="R3">
-        <v>681.8978611758821</v>
+        <v>1153.72878074168</v>
       </c>
       <c r="S3">
-        <v>0.01664006858849034</v>
+        <v>0.02000113103999768</v>
       </c>
       <c r="T3">
-        <v>0.01664006858849034</v>
+        <v>0.02000113103999768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H4">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I4">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J4">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.54136766666667</v>
+        <v>27.596267</v>
       </c>
       <c r="N4">
-        <v>67.62410300000001</v>
+        <v>82.78880100000001</v>
       </c>
       <c r="O4">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="P4">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="Q4">
-        <v>29.87489357165856</v>
+        <v>61.88150117057333</v>
       </c>
       <c r="R4">
-        <v>268.874042144927</v>
+        <v>556.9335105351601</v>
       </c>
       <c r="S4">
-        <v>0.00656122090666336</v>
+        <v>0.009655042251454202</v>
       </c>
       <c r="T4">
-        <v>0.006561220906663359</v>
+        <v>0.009655042251454202</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H5">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I5">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J5">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1182046666666667</v>
+        <v>0.1128593333333333</v>
       </c>
       <c r="N5">
-        <v>0.354614</v>
+        <v>0.338578</v>
       </c>
       <c r="O5">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="P5">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="Q5">
-        <v>0.1566609395028889</v>
+        <v>0.2530742642755555</v>
       </c>
       <c r="R5">
-        <v>1.409948455526</v>
+        <v>2.27766837848</v>
       </c>
       <c r="S5">
-        <v>3.440638304060788E-05</v>
+        <v>3.948583450813427E-05</v>
       </c>
       <c r="T5">
-        <v>3.440638304060788E-05</v>
+        <v>3.948583450813427E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>61.364557</v>
       </c>
       <c r="I6">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J6">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.424575</v>
+        <v>42.09975866666667</v>
       </c>
       <c r="N6">
-        <v>61.273725</v>
+        <v>126.299276</v>
       </c>
       <c r="O6">
-        <v>0.203732656096709</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="P6">
-        <v>0.2037326560967089</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="Q6">
-        <v>417.7816655960917</v>
+        <v>861.1443467956368</v>
       </c>
       <c r="R6">
-        <v>3760.034990364825</v>
+        <v>7750.299121160731</v>
       </c>
       <c r="S6">
-        <v>0.09175456281223957</v>
+        <v>0.1343597827401538</v>
       </c>
       <c r="T6">
-        <v>0.09175456281223955</v>
+        <v>0.1343597827401538</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>61.364557</v>
       </c>
       <c r="I7">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J7">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>171.503098</v>
       </c>
       <c r="O7">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="P7">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="Q7">
         <v>1169.356848099732</v>
@@ -883,10 +883,10 @@
         <v>10524.21163289759</v>
       </c>
       <c r="S7">
-        <v>0.2568179391400585</v>
+        <v>0.1824485437790103</v>
       </c>
       <c r="T7">
-        <v>0.2568179391400585</v>
+        <v>0.1824485437790103</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>61.364557</v>
       </c>
       <c r="I8">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J8">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.54136766666667</v>
+        <v>27.596267</v>
       </c>
       <c r="N8">
-        <v>67.62410300000001</v>
+        <v>82.78880100000001</v>
       </c>
       <c r="O8">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="P8">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="Q8">
-        <v>461.0803470130413</v>
+        <v>564.4775664362396</v>
       </c>
       <c r="R8">
-        <v>4149.723123117371</v>
+        <v>5080.298097926157</v>
       </c>
       <c r="S8">
-        <v>0.1012639594921781</v>
+        <v>0.08807243927255629</v>
       </c>
       <c r="T8">
-        <v>0.101263959492178</v>
+        <v>0.08807243927255629</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>61.364557</v>
       </c>
       <c r="I9">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J9">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1182046666666667</v>
+        <v>0.1128593333333333</v>
       </c>
       <c r="N9">
-        <v>0.354614</v>
+        <v>0.338578</v>
       </c>
       <c r="O9">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="P9">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="Q9">
-        <v>2.417859001777555</v>
+        <v>2.308520997771777</v>
       </c>
       <c r="R9">
-        <v>21.760731015998</v>
+        <v>20.776688979946</v>
       </c>
       <c r="S9">
-        <v>0.0005310180266843499</v>
+        <v>0.0003601862810408809</v>
       </c>
       <c r="T9">
-        <v>0.0005310180266843499</v>
+        <v>0.0003601862810408809</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H10">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I10">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J10">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.424575</v>
+        <v>42.09975866666667</v>
       </c>
       <c r="N10">
-        <v>61.273725</v>
+        <v>126.299276</v>
       </c>
       <c r="O10">
-        <v>0.203732656096709</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="P10">
-        <v>0.2037326560967089</v>
+        <v>0.3315552933456474</v>
       </c>
       <c r="Q10">
-        <v>482.7950690048667</v>
+        <v>1169.469788012588</v>
       </c>
       <c r="R10">
-        <v>4345.1556210438</v>
+        <v>10525.22809211329</v>
       </c>
       <c r="S10">
-        <v>0.1060330170814011</v>
+        <v>0.1824661651942939</v>
       </c>
       <c r="T10">
-        <v>0.1060330170814011</v>
+        <v>0.1824661651942939</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H11">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I11">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J11">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>171.503098</v>
       </c>
       <c r="O11">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="P11">
-        <v>0.5702408607336045</v>
+        <v>0.4502223747274475</v>
       </c>
       <c r="Q11">
-        <v>1351.327180344567</v>
+        <v>1588.035165471274</v>
       </c>
       <c r="R11">
-        <v>12161.94462310111</v>
+        <v>14292.31648924147</v>
       </c>
       <c r="S11">
-        <v>0.2967828530050556</v>
+        <v>0.2477726999084396</v>
       </c>
       <c r="T11">
-        <v>0.2967828530050556</v>
+        <v>0.2477726999084396</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H12">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I12">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J12">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.54136766666667</v>
+        <v>27.596267</v>
       </c>
       <c r="N12">
-        <v>67.62410300000001</v>
+        <v>82.78880100000001</v>
       </c>
       <c r="O12">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="P12">
-        <v>0.2248474059696456</v>
+        <v>0.2173335118824389</v>
       </c>
       <c r="Q12">
-        <v>532.831706808705</v>
+        <v>766.583979113913</v>
       </c>
       <c r="R12">
-        <v>4795.485361278344</v>
+        <v>6899.255812025218</v>
       </c>
       <c r="S12">
-        <v>0.1170222255708042</v>
+        <v>0.1196060303584284</v>
       </c>
       <c r="T12">
-        <v>0.1170222255708042</v>
+        <v>0.1196060303584284</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H13">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I13">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J13">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1182046666666667</v>
+        <v>0.1128593333333333</v>
       </c>
       <c r="N13">
-        <v>0.354614</v>
+        <v>0.338578</v>
       </c>
       <c r="O13">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="P13">
-        <v>0.001179077200040937</v>
+        <v>0.0008888200444663087</v>
       </c>
       <c r="Q13">
-        <v>2.794115921630222</v>
+        <v>3.135067392514</v>
       </c>
       <c r="R13">
-        <v>25.147043294672</v>
+        <v>28.215606532626</v>
       </c>
       <c r="S13">
-        <v>0.0006136527903159789</v>
+        <v>0.0004891479289172937</v>
       </c>
       <c r="T13">
-        <v>0.0006136527903159789</v>
+        <v>0.0004891479289172936</v>
       </c>
     </row>
   </sheetData>
